--- a/trunk/se/Trabajo Profesional/Disciplinas/3.Analisis/Casos de Uso/CU03 - Modificando deportista/TC03 -Modificando deportista.xlsx
+++ b/trunk/se/Trabajo Profesional/Disciplinas/3.Analisis/Casos de Uso/CU03 - Modificando deportista/TC03 -Modificando deportista.xlsx
@@ -182,12 +182,6 @@
     <t>Modificar Deportista</t>
   </si>
   <si>
-    <t>1. Seleccionar 'Sportsman'
-2. Seleccionar 'Modificar Sportsman'
-3. Completar datos obligatorios
-4. Presionar Save</t>
-  </si>
-  <si>
     <t>Verificar:
 1. Que los datos del deportista se modificaron en la base de datos</t>
   </si>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>1. Seleccionar 'Sportsman'
+2. Seleccionar 'Modify Sportsman'
+3. Completar datos obligatorios
+4. Presionar Save</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -919,13 +919,13 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -943,11 +943,11 @@
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
